--- a/.report/Article1/R.HydroBogota_Articulo1.xlsx
+++ b/.report/Article1/R.HydroBogota_Articulo1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.HydroBogota\.report\Article1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\.report\Article1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35641862-E3E6-4DCD-8CA8-588C035F063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA8636C-D986-4F85-B585-CBCFCE682AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="33154" windowHeight="18034" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FCD" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Ficha de control</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Actividad</t>
   </si>
   <si>
-    <t>Fecha (y/m/d)</t>
-  </si>
-  <si>
     <t>Observaciones</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>Revisión avance</t>
   </si>
   <si>
-    <t>Reunión interna Centro de Estudios Hidráulicos, revisión técnica avance.</t>
-  </si>
-  <si>
     <t>Versión inicial artículo</t>
   </si>
   <si>
@@ -69,7 +63,19 @@
     <t>Revisión HARD, AHOC. Requiere ajuste a 25 páginas.</t>
   </si>
   <si>
-    <t>Ajuste de artículo a 25 páginas.</t>
+    <t xml:space="preserve">Enviado por AHOC a la revista "Ciencia, Ingenierías y Aplicaciones" (ISSN Print: 2636-218X, Online: 2636-2171) https://revistas.intec.edu.do/index.php/cite </t>
+  </si>
+  <si>
+    <t>Fecha (yyyy/mm/d)</t>
+  </si>
+  <si>
+    <t>WRAP</t>
+  </si>
+  <si>
+    <t>Reunión interna Centro de Estudios Hidráulicos, revisión técnica avance. ARD, AHOC, JDRA, WRAP.</t>
+  </si>
+  <si>
+    <t>Ajuste de artículo a 25 páginas. WRAP.</t>
   </si>
 </sst>
 </file>
@@ -252,26 +258,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,177 +574,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.07421875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="64.61328125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="55.5546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3">
+        <v>45226</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10">
-        <v>45226</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3">
+        <v>45463</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45464</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45471</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45492</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="33.6" x14ac:dyDescent="0.4">
+      <c r="B9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45506</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10">
-        <v>45463</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C10" s="3">
+        <v>45525</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10">
-        <v>45464</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10">
-        <v>45471</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10">
-        <v>45492</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10">
-        <v>45506</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="2" t="s">
+      <c r="C11" s="3">
+        <v>45530</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10">
-        <v>45525</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="3">
+        <v>45532</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="50.4" x14ac:dyDescent="0.4">
+      <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="10">
-        <v>45530</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="3">
+        <v>45533</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10">
-        <v>45532</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="2"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="2"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="4"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="9"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.report/Article1/R.HydroBogota_Articulo1.xlsx
+++ b/.report/Article1/R.HydroBogota_Articulo1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.HydroBogota\.report\Article1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.HydroBogota\.report\Article1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA8636C-D986-4F85-B585-CBCFCE682AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11872C8D-E0AB-49A6-B7DF-32953D0EB1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FCD" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Ficha de control</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Ajuste de artículo a 25 páginas. WRAP.</t>
+  </si>
+  <si>
+    <t>Aceptación revista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recepción de e-mail. </t>
   </si>
 </sst>
 </file>
@@ -574,27 +580,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D21"/>
+  <dimension ref="B2:D22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="55.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="1"/>
+    <col min="4" max="4" width="55.53125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" ht="33" x14ac:dyDescent="0.6">
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
@@ -605,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -616,7 +622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="33" x14ac:dyDescent="0.6">
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
@@ -627,7 +633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" ht="33" x14ac:dyDescent="0.6">
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
@@ -638,7 +644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" ht="33" x14ac:dyDescent="0.6">
       <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
@@ -649,7 +655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" ht="33" x14ac:dyDescent="0.6">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -660,7 +666,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" ht="33" x14ac:dyDescent="0.6">
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
@@ -671,7 +677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
@@ -682,7 +688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
@@ -693,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
@@ -704,7 +710,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" ht="49.5" x14ac:dyDescent="0.6">
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
@@ -715,47 +721,58 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45579</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.6">
+      <c r="B15" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="7"/>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.6">
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B18" s="7"/>
       <c r="C18" s="3"/>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.6">
       <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="9"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D21" s="2"/>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.6">
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.6">
+      <c r="B21" s="9"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.6">
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
